--- a/Assets/Resources/Excel/Item.xlsx
+++ b/Assets/Resources/Excel/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UP\Utility\InventoryDemo\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F014E-B7DA-47FC-8A3A-8CD8FEA46D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCD550-7A27-4D10-A29E-FB53A2E95E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2760" windowWidth="29355" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5100" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <author>tc={0E5698EF-75DF-4A8F-8D3F-D95E602EBA6C}</author>
     <author>tc={FBC12A59-506A-4230-816F-1488AB5DB8B3}</author>
     <author>tc={3F9CF042-6A88-42FE-9087-2D00F9990393}</author>
+    <author>tc={7F96B698-33AC-4F42-96DE-7C7A53D15C19}</author>
     <author>tc={7102B198-F533-422F-8E51-924EE17FF6CD}</author>
   </authors>
   <commentList>
@@ -66,7 +67,26 @@
 5=Artifact</t>
       </text>
     </comment>
-    <comment ref="S1" authorId="3" shapeId="0" xr:uid="{7102B198-F533-422F-8E51-924EE17FF6CD}">
+    <comment ref="Q1" authorId="3" shapeId="0" xr:uid="{7F96B698-33AC-4F42-96DE-7C7A53D15C19}">
+      <text>
+        <t xml:space="preserve">[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    None=-1,
+Head = 1,
+Neck = 2,
+Chest = 3,
+Belt = 4,
+Leg = 5,
+Boots = 6,
+Ring = 7,
+Shoulder = 8,
+OffHand = 9,
+Bracer = 10
+</t>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="4" shapeId="0" xr:uid="{7102B198-F533-422F-8E51-924EE17FF6CD}">
       <text>
         <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
@@ -413,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +456,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -783,6 +809,20 @@
 4=Lengendary
 5=Artifact</text>
   </threadedComment>
+  <threadedComment ref="Q1" dT="2024-08-09T09:01:54.21" personId="{82350B1C-5930-4FBB-9BD0-2155006B8CBE}" id="{7F96B698-33AC-4F42-96DE-7C7A53D15C19}">
+    <text xml:space="preserve">None=-1,
+Head = 1,
+Neck = 2,
+Chest = 3,
+Belt = 4,
+Leg = 5,
+Boots = 6,
+Ring = 7,
+Shoulder = 8,
+OffHand = 9,
+Bracer = 10
+</text>
+  </threadedComment>
   <threadedComment ref="S1" dT="2024-07-26T02:47:59.38" personId="{82350B1C-5930-4FBB-9BD0-2155006B8CBE}" id="{7102B198-F533-422F-8E51-924EE17FF6CD}">
     <text>1=MainHand
 2=OffHand</text>
@@ -794,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1236,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9" s="3">
         <v>-1</v>
@@ -1292,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="Q10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R10" s="3">
         <v>-1</v>
@@ -1348,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="Q11" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R11" s="3">
         <v>-1</v>
@@ -1404,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="Q12" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R12" s="3">
         <v>-1</v>
@@ -1460,7 +1500,7 @@
         <v>4</v>
       </c>
       <c r="Q13" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R13" s="3">
         <v>-1</v>
@@ -1516,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="Q14" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3">
         <v>-1</v>
@@ -1572,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="Q15" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R15" s="3">
         <v>-1</v>
@@ -1628,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="Q16" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16" s="3">
         <v>-1</v>
@@ -1684,7 +1724,7 @@
         <v>40</v>
       </c>
       <c r="Q17" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R17" s="3">
         <v>-1</v>
@@ -1740,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="Q18" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R18" s="3">
         <v>-1</v>
